--- a/软工数据库设计/软工数据库设计.xlsx
+++ b/软工数据库设计/软工数据库设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品图片链接地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +370,30 @@
   </si>
   <si>
     <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>album表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片编号，主键，自动递增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,13 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1190,16 +1213,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1207,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1221,27 +1241,27 @@
         <v>6</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1249,263 +1269,263 @@
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
-        <v>9</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>3</v>
+      <c r="A52" s="6">
+        <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="6">
-        <v>5</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C55" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C56" s="4" t="s">
-        <v>77</v>
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>63</v>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C60" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C61" s="4" t="s">
-        <v>78</v>
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>2</v>
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>83</v>
@@ -1513,13 +1533,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>84</v>
@@ -1527,50 +1547,97 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
-        <v>5</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C68" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
